--- a/заказы/филиалы и опт/2024/08,24/26,08,24 Ост СЫР филиалы/заказ СЫРЫ от 28,08,24 на 02,09,24.xlsx
+++ b/заказы/филиалы и опт/2024/08,24/26,08,24 Ост СЫР филиалы/заказ СЫРЫ от 28,08,24 на 02,09,24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\26,08,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\08,24\26,08,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A161E103-680E-4084-B4D9-85F5B729FF8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C0CFB3-F3B4-4ED8-8356-08459CC9A3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,10 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -982,7 +983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="54">
         <v>5522698</v>
       </c>
@@ -1007,7 +1008,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="42">
         <v>5038435</v>
       </c>
@@ -1032,7 +1033,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="40">
         <v>6159796</v>
       </c>
@@ -1057,7 +1058,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="42">
         <v>5038459</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="45">
         <v>5521103</v>
       </c>
@@ -1136,7 +1137,7 @@
       </c>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="46">
         <v>5038411</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="31">
         <v>5522766</v>
       </c>
@@ -1213,7 +1214,7 @@
       </c>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="46">
         <v>5038398</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="48">
         <v>6159819</v>
       </c>
@@ -1292,7 +1293,7 @@
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="48">
         <v>5038855</v>
       </c>
@@ -1317,7 +1318,7 @@
       </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="31">
         <v>5522605</v>
       </c>
@@ -1342,7 +1343,7 @@
       </c>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="48">
         <v>5038831</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="48">
         <v>1018950</v>
       </c>
@@ -1419,7 +1420,7 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="48">
         <v>1018967</v>
       </c>
@@ -1444,7 +1445,7 @@
       </c>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1">
+    <row r="22" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A22" s="48">
         <v>783798</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="9" customFormat="1">
+    <row r="24" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A24" s="48">
         <v>783804</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="9" customFormat="1">
+    <row r="27" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A27" s="48">
         <v>8444194</v>
       </c>
@@ -1590,19 +1591,19 @@
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="29">
-        <f>D27/C27</f>
+        <f t="shared" ref="F27:F34" si="0">D27/C27</f>
         <v>0</v>
       </c>
       <c r="G27" s="22">
         <v>0.1</v>
       </c>
       <c r="H27" s="25">
-        <f>G27*D27</f>
+        <f t="shared" ref="H27:H34" si="1">G27*D27</f>
         <v>0</v>
       </c>
       <c r="I27" s="29"/>
     </row>
-    <row r="28" spans="1:9" s="9" customFormat="1">
+    <row r="28" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A28" s="48">
         <v>8444187</v>
       </c>
@@ -1615,19 +1616,19 @@
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="29">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="22">
         <v>0.1</v>
       </c>
       <c r="H28" s="25">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1">
+    <row r="29" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A29" s="48">
         <v>8444163</v>
       </c>
@@ -1640,19 +1641,19 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="29">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="22">
         <v>0.1</v>
       </c>
       <c r="H29" s="25">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:9" s="9" customFormat="1">
+    <row r="30" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A30" s="48">
         <v>8444170</v>
       </c>
@@ -1665,19 +1666,19 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="29">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="22">
         <v>0.1</v>
       </c>
       <c r="H30" s="25">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:9" s="9" customFormat="1">
+    <row r="31" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A31" s="48">
         <v>9988377</v>
       </c>
@@ -1690,19 +1691,19 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="29">
-        <f>D31/C31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H31" s="25">
-        <f>G31*D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:9" s="9" customFormat="1">
+    <row r="32" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A32" s="48">
         <v>9988391</v>
       </c>
@@ -1715,19 +1716,19 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="29">
-        <f>D32/C32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="25">
-        <f>G32*D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" s="9" customFormat="1">
+    <row r="33" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A33" s="48">
         <v>5034819</v>
       </c>
@@ -1740,19 +1741,19 @@
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="29">
-        <f>D33/C33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="22">
         <v>0.18</v>
       </c>
       <c r="H33" s="25">
-        <f>G33*D33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="29"/>
     </row>
-    <row r="34" spans="1:9" s="9" customFormat="1">
+    <row r="34" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A34" s="48">
         <v>5034864</v>
       </c>
@@ -1765,14 +1766,14 @@
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="29">
-        <f>D34/C34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G34" s="22">
         <v>0.1</v>
       </c>
       <c r="H34" s="25">
-        <f>G34*D34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="29"/>
@@ -1887,7 +1888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="9" customFormat="1">
+    <row r="39" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A39" s="48">
         <v>9988452</v>
       </c>
@@ -1902,19 +1903,19 @@
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="29">
-        <f>D39/C39</f>
+        <f t="shared" ref="F39:F45" si="2">D39/C39</f>
         <v>4</v>
       </c>
       <c r="G39" s="22">
         <v>0.4</v>
       </c>
       <c r="H39" s="29">
-        <f>G39*D39</f>
+        <f t="shared" ref="H39:H44" si="3">G39*D39</f>
         <v>12.8</v>
       </c>
       <c r="I39" s="29"/>
     </row>
-    <row r="40" spans="1:9" s="9" customFormat="1">
+    <row r="40" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A40" s="48">
         <v>9988476</v>
       </c>
@@ -1927,19 +1928,19 @@
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="29">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="22">
         <v>0.4</v>
       </c>
       <c r="H40" s="29">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" s="9" customFormat="1">
+    <row r="41" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A41" s="48">
         <v>9988681</v>
       </c>
@@ -1952,19 +1953,19 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="29">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="22">
         <v>0.18</v>
       </c>
       <c r="H41" s="25">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="29"/>
     </row>
-    <row r="42" spans="1:9" s="9" customFormat="1">
+    <row r="42" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A42" s="48">
         <v>9988438</v>
       </c>
@@ -1977,19 +1978,19 @@
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="29">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="22">
         <v>0.18</v>
       </c>
       <c r="H42" s="29">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="29"/>
     </row>
-    <row r="43" spans="1:9" s="9" customFormat="1">
+    <row r="43" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A43" s="48">
         <v>9988445</v>
       </c>
@@ -2002,19 +2003,19 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="29">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="22">
         <v>0.18</v>
       </c>
       <c r="H43" s="29">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="29"/>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1">
+    <row r="44" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A44" s="48">
         <v>9988421</v>
       </c>
@@ -2027,19 +2028,19 @@
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
       <c r="F44" s="29">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H44" s="25">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="29"/>
     </row>
-    <row r="45" spans="1:9" s="9" customFormat="1">
+    <row r="45" spans="1:9" s="9" customFormat="1" hidden="1">
       <c r="A45" s="48">
         <v>9988674</v>
       </c>
@@ -2052,7 +2053,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="29">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="22">
@@ -2064,7 +2065,7 @@
       </c>
       <c r="I45" s="29"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="B46" s="20" t="s">
         <v>12</v>
       </c>
@@ -2081,7 +2082,17 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A3:I46" xr:uid="{730FF758-C4C0-467A-AFAC-F3DC90E78B59}"/>
+  <autoFilter ref="A3:I46" xr:uid="{730FF758-C4C0-467A-AFAC-F3DC90E78B59}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1,3"/>
+        <filter val="2,5"/>
+        <filter val="3,2"/>
+        <filter val="3,5"/>
+        <filter val="7,5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0" right="0" top="0.1388888888888889" bottom="0.1388888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2775,14 +2786,14 @@
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="29">
-        <f>D27/C27</f>
+        <f t="shared" ref="F27:F34" si="0">D27/C27</f>
         <v>8</v>
       </c>
       <c r="G27" s="22">
         <v>0.1</v>
       </c>
       <c r="H27" s="25">
-        <f>G27*D27</f>
+        <f t="shared" ref="H27:H34" si="1">G27*D27</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="I27" s="29"/>
@@ -2802,14 +2813,14 @@
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="29">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="G28" s="22">
         <v>0.1</v>
       </c>
       <c r="H28" s="25">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>35.4</v>
       </c>
       <c r="I28" s="29"/>
@@ -2827,14 +2838,14 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="29">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="22">
         <v>0.1</v>
       </c>
       <c r="H29" s="25">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="29"/>
@@ -2852,14 +2863,14 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="29">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="22">
         <v>0.1</v>
       </c>
       <c r="H30" s="25">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="29"/>
@@ -2877,14 +2888,14 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="29">
-        <f>D31/C31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H31" s="25">
-        <f>G31*D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="29"/>
@@ -2904,14 +2915,14 @@
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="29">
-        <f>D32/C32</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G32" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="25">
-        <f>G32*D32</f>
+        <f t="shared" si="1"/>
         <v>20.160000000000004</v>
       </c>
       <c r="I32" s="29"/>
@@ -2929,14 +2940,14 @@
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="29">
-        <f>D33/C33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="22">
         <v>0.18</v>
       </c>
       <c r="H33" s="25">
-        <f>G33*D33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="29"/>
@@ -2954,14 +2965,14 @@
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="29">
-        <f>D34/C34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G34" s="22">
         <v>0.1</v>
       </c>
       <c r="H34" s="25">
-        <f>G34*D34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="29"/>
@@ -3087,14 +3098,14 @@
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="29">
-        <f>D39/C39</f>
+        <f t="shared" ref="F39:F45" si="2">D39/C39</f>
         <v>0</v>
       </c>
       <c r="G39" s="22">
         <v>0.4</v>
       </c>
       <c r="H39" s="29">
-        <f>G39*D39</f>
+        <f t="shared" ref="H39:H44" si="3">G39*D39</f>
         <v>0</v>
       </c>
       <c r="I39" s="29"/>
@@ -3112,14 +3123,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="29">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="22">
         <v>0.4</v>
       </c>
       <c r="H40" s="29">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="29"/>
@@ -3137,14 +3148,14 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="29">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="22">
         <v>0.18</v>
       </c>
       <c r="H41" s="25">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="29"/>
@@ -3164,14 +3175,14 @@
       </c>
       <c r="E42" s="30"/>
       <c r="F42" s="29">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G42" s="22">
         <v>0.18</v>
       </c>
       <c r="H42" s="29">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>25.919999999999998</v>
       </c>
       <c r="I42" s="29"/>
@@ -3189,14 +3200,14 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="29">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="22">
         <v>0.18</v>
       </c>
       <c r="H43" s="29">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="29"/>
@@ -3214,14 +3225,14 @@
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
       <c r="F44" s="29">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H44" s="25">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="29"/>
@@ -3239,7 +3250,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="29">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="22">
@@ -3946,14 +3957,14 @@
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="29">
-        <f>D27/C27</f>
+        <f t="shared" ref="F27:F34" si="0">D27/C27</f>
         <v>39</v>
       </c>
       <c r="G27" s="22">
         <v>0.1</v>
       </c>
       <c r="H27" s="25">
-        <f>G27*D27</f>
+        <f t="shared" ref="H27:H34" si="1">G27*D27</f>
         <v>23.400000000000002</v>
       </c>
       <c r="I27" s="29"/>
@@ -3973,14 +3984,14 @@
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="29">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G28" s="22">
         <v>0.1</v>
       </c>
       <c r="H28" s="25">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>25.200000000000003</v>
       </c>
       <c r="I28" s="29"/>
@@ -3998,14 +4009,14 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="29">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="22">
         <v>0.1</v>
       </c>
       <c r="H29" s="25">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="29"/>
@@ -4023,14 +4034,14 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="29">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="22">
         <v>0.1</v>
       </c>
       <c r="H30" s="25">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="29"/>
@@ -4048,14 +4059,14 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="29">
-        <f>D31/C31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H31" s="25">
-        <f>G31*D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="29"/>
@@ -4073,14 +4084,14 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="29">
-        <f>D32/C32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="25">
-        <f>G32*D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="29"/>
@@ -4100,14 +4111,14 @@
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="29">
-        <f>D33/C33</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G33" s="22">
         <v>0.18</v>
       </c>
       <c r="H33" s="25">
-        <f>G33*D33</f>
+        <f t="shared" si="1"/>
         <v>7.56</v>
       </c>
       <c r="I33" s="29"/>
@@ -4125,14 +4136,14 @@
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="29">
-        <f>D34/C34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G34" s="22">
         <v>0.1</v>
       </c>
       <c r="H34" s="25">
-        <f>G34*D34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="29"/>
@@ -4262,14 +4273,14 @@
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="29">
-        <f>D39/C39</f>
+        <f t="shared" ref="F39:F45" si="2">D39/C39</f>
         <v>16</v>
       </c>
       <c r="G39" s="22">
         <v>0.4</v>
       </c>
       <c r="H39" s="29">
-        <f>G39*D39</f>
+        <f t="shared" ref="H39:H44" si="3">G39*D39</f>
         <v>51.2</v>
       </c>
       <c r="I39" s="29"/>
@@ -4287,14 +4298,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="29">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="22">
         <v>0.4</v>
       </c>
       <c r="H40" s="29">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="29"/>
@@ -4312,14 +4323,14 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="29">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="22">
         <v>0.18</v>
       </c>
       <c r="H41" s="25">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="29"/>
@@ -4337,14 +4348,14 @@
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="29">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="22">
         <v>0.18</v>
       </c>
       <c r="H42" s="29">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="29"/>
@@ -4362,14 +4373,14 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="29">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="22">
         <v>0.18</v>
       </c>
       <c r="H43" s="29">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="29"/>
@@ -4389,14 +4400,14 @@
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="29">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G44" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="H44" s="25">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="I44" s="29"/>
@@ -4414,7 +4425,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="29">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="22">
